--- a/Documentation/ERD/E-Inventory ERD.xlsx
+++ b/Documentation/ERD/E-Inventory ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e-inventory\Documentation\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D0B90-B789-4B89-86BE-0C7B4E31B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F02D886-AF1F-4019-B79F-396DF252E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D1C0754-7DB6-4B2A-AE59-4AFE490474E2}"/>
   </bookViews>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C018AA5-1611-4B07-A893-83EC88E80D70}">
   <dimension ref="B2:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
